--- a/conductor.xlsx
+++ b/conductor.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJECTES_2021\COPERNICAN\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="28512" windowHeight="12468"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="28515" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="vars" sheetId="1" r:id="rId1"/>
@@ -3849,7 +3844,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Input" xfId="1" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="3" builtinId="25" customBuiltin="1"/>
@@ -3868,9 +3863,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de l'Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Oficina">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3908,9 +3903,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Oficina">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3945,7 +3940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3980,7 +3975,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Oficina">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4157,27 +4152,27 @@
   <dimension ref="A1:R533"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C307" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R322" sqref="R322"/>
+      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" style="60" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="60" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
     <col min="9" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="257" width="11.44140625" customWidth="1"/>
+    <col min="14" max="257" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>534</v>
       </c>
@@ -4233,7 +4228,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4265,7 +4260,7 @@
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -4293,7 +4288,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -4321,7 +4316,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -4353,7 +4348,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -4425,7 +4420,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -4457,7 +4452,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -4489,7 +4484,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -4521,7 +4516,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -4553,7 +4548,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -4585,7 +4580,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -4613,7 +4608,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -4645,7 +4640,7 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -4677,7 +4672,7 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>15</v>
       </c>
@@ -4705,7 +4700,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>15</v>
       </c>
@@ -4737,7 +4732,7 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>17</v>
       </c>
@@ -4773,7 +4768,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>18</v>
       </c>
@@ -4809,7 +4804,7 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -4845,7 +4840,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>20</v>
       </c>
@@ -4881,7 +4876,7 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>21</v>
       </c>
@@ -4917,7 +4912,7 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -4949,7 +4944,7 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>23</v>
       </c>
@@ -4981,7 +4976,7 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>24</v>
       </c>
@@ -5015,7 +5010,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>25</v>
       </c>
@@ -5049,7 +5044,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>26</v>
       </c>
@@ -5081,7 +5076,7 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>27</v>
       </c>
@@ -5115,7 +5110,7 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="35">
         <v>28</v>
       </c>
@@ -5149,7 +5144,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>29</v>
       </c>
@@ -5183,7 +5178,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -5215,7 +5210,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>31</v>
       </c>
@@ -5247,7 +5242,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>32</v>
       </c>
@@ -5279,7 +5274,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>33</v>
       </c>
@@ -5307,7 +5302,7 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>34</v>
       </c>
@@ -5341,7 +5336,7 @@
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>35</v>
       </c>
@@ -5375,7 +5370,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <v>36</v>
       </c>
@@ -5409,7 +5404,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>37</v>
       </c>
@@ -5443,7 +5438,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>38</v>
       </c>
@@ -5479,7 +5474,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
     </row>
-    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40">
         <v>39</v>
       </c>
@@ -5507,7 +5502,7 @@
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <v>40</v>
       </c>
@@ -5541,7 +5536,7 @@
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="35">
         <v>41</v>
       </c>
@@ -5575,7 +5570,7 @@
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="35">
         <v>42</v>
       </c>
@@ -5609,7 +5604,7 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43</v>
       </c>
@@ -5643,7 +5638,7 @@
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>44</v>
       </c>
@@ -5677,7 +5672,7 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>45</v>
       </c>
@@ -5711,7 +5706,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>46</v>
       </c>
@@ -5747,7 +5742,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="35">
         <v>47</v>
       </c>
@@ -5779,7 +5774,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="35">
         <v>48</v>
       </c>
@@ -5813,7 +5808,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="35">
         <v>49</v>
       </c>
@@ -5847,7 +5842,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
         <v>50</v>
       </c>
@@ -5881,7 +5876,7 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
         <v>51</v>
       </c>
@@ -5915,7 +5910,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
         <v>52</v>
       </c>
@@ -5947,7 +5942,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
         <v>53</v>
       </c>
@@ -5981,7 +5976,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
         <v>54</v>
       </c>
@@ -6015,7 +6010,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>55</v>
       </c>
@@ -6049,7 +6044,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>56</v>
       </c>
@@ -6083,7 +6078,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="35">
         <v>57</v>
       </c>
@@ -6117,7 +6112,7 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>58</v>
       </c>
@@ -6151,7 +6146,7 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <v>59</v>
       </c>
@@ -6185,7 +6180,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="35">
         <v>60</v>
       </c>
@@ -6219,7 +6214,7 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" s="35">
         <v>61</v>
       </c>
@@ -6253,7 +6248,7 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="35">
         <v>62</v>
       </c>
@@ -6285,7 +6280,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>63</v>
       </c>
@@ -6313,7 +6308,7 @@
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>64</v>
       </c>
@@ -6345,7 +6340,7 @@
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="39">
         <v>65</v>
       </c>
@@ -6379,7 +6374,7 @@
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <v>66</v>
       </c>
@@ -6413,7 +6408,7 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="39">
         <v>67</v>
       </c>
@@ -6447,7 +6442,7 @@
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="39">
         <v>68</v>
       </c>
@@ -6481,7 +6476,7 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="39">
         <v>69</v>
       </c>
@@ -6515,7 +6510,7 @@
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="39">
         <v>70</v>
       </c>
@@ -6549,7 +6544,7 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>71</v>
       </c>
@@ -6583,7 +6578,7 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>72</v>
       </c>
@@ -6617,7 +6612,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>73</v>
       </c>
@@ -6651,7 +6646,7 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>74</v>
       </c>
@@ -6685,7 +6680,7 @@
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>75</v>
       </c>
@@ -6719,7 +6714,7 @@
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>76</v>
       </c>
@@ -6753,7 +6748,7 @@
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>77</v>
       </c>
@@ -6787,7 +6782,7 @@
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>78</v>
       </c>
@@ -6821,7 +6816,7 @@
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <v>79</v>
       </c>
@@ -6855,7 +6850,7 @@
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>80</v>
       </c>
@@ -6889,7 +6884,7 @@
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>81</v>
       </c>
@@ -6921,7 +6916,7 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>82</v>
       </c>
@@ -6955,7 +6950,7 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>83</v>
       </c>
@@ -6987,7 +6982,7 @@
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>84</v>
       </c>
@@ -7021,7 +7016,7 @@
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>85</v>
       </c>
@@ -7053,7 +7048,7 @@
       <c r="Q86" s="13"/>
       <c r="R86" s="13"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>86</v>
       </c>
@@ -7087,7 +7082,7 @@
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>87</v>
       </c>
@@ -7119,7 +7114,7 @@
       <c r="Q88" s="13"/>
       <c r="R88" s="13"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>88</v>
       </c>
@@ -7153,7 +7148,7 @@
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>89</v>
       </c>
@@ -7185,7 +7180,7 @@
       <c r="Q90" s="13"/>
       <c r="R90" s="13"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>90</v>
       </c>
@@ -7219,7 +7214,7 @@
       <c r="Q91" s="13"/>
       <c r="R91" s="13"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>91</v>
       </c>
@@ -7251,7 +7246,7 @@
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="39">
         <v>92</v>
       </c>
@@ -7285,7 +7280,7 @@
       <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>93</v>
       </c>
@@ -7317,7 +7312,7 @@
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
     </row>
-    <row r="95" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>94</v>
       </c>
@@ -7351,7 +7346,7 @@
       <c r="Q95" s="13"/>
       <c r="R95" s="13"/>
     </row>
-    <row r="96" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>95</v>
       </c>
@@ -7385,7 +7380,7 @@
       <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>96</v>
       </c>
@@ -7419,7 +7414,7 @@
       <c r="Q97" s="13"/>
       <c r="R97" s="13"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>97</v>
       </c>
@@ -7453,7 +7448,7 @@
       <c r="Q98" s="13"/>
       <c r="R98" s="13"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>98</v>
       </c>
@@ -7487,7 +7482,7 @@
       <c r="Q99" s="13"/>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>99</v>
       </c>
@@ -7521,7 +7516,7 @@
       <c r="Q100" s="13"/>
       <c r="R100" s="13"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>100</v>
       </c>
@@ -7553,7 +7548,7 @@
       <c r="Q101" s="13"/>
       <c r="R101" s="13"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>101</v>
       </c>
@@ -7587,7 +7582,7 @@
       <c r="Q102" s="13"/>
       <c r="R102" s="13"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>102</v>
       </c>
@@ -7619,7 +7614,7 @@
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>103</v>
       </c>
@@ -7653,7 +7648,7 @@
       <c r="Q104" s="13"/>
       <c r="R104" s="13"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>104</v>
       </c>
@@ -7687,7 +7682,7 @@
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>105</v>
       </c>
@@ -7721,7 +7716,7 @@
       <c r="Q106" s="13"/>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="40">
         <v>106</v>
       </c>
@@ -7751,7 +7746,7 @@
       <c r="Q107" s="13"/>
       <c r="R107" s="13"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" s="34">
         <v>107</v>
       </c>
@@ -7785,7 +7780,7 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="23"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="35">
         <v>108</v>
       </c>
@@ -7819,7 +7814,7 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" s="35">
         <v>109</v>
       </c>
@@ -7853,7 +7848,7 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" s="35">
         <v>110</v>
       </c>
@@ -7887,7 +7882,7 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" s="35">
         <v>111</v>
       </c>
@@ -7921,7 +7916,7 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" s="35">
         <v>112</v>
       </c>
@@ -7955,7 +7950,7 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="35">
         <v>113</v>
       </c>
@@ -7989,7 +7984,7 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="35">
         <v>114</v>
       </c>
@@ -8023,7 +8018,7 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="35">
         <v>115</v>
       </c>
@@ -8057,7 +8052,7 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" s="35">
         <v>116</v>
       </c>
@@ -8091,7 +8086,7 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="35">
         <v>117</v>
       </c>
@@ -8125,7 +8120,7 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" s="35">
         <v>118</v>
       </c>
@@ -8159,7 +8154,7 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" s="35">
         <v>119</v>
       </c>
@@ -8193,7 +8188,7 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="35">
         <v>120</v>
       </c>
@@ -8227,7 +8222,7 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="35">
         <v>121</v>
       </c>
@@ -8261,7 +8256,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" s="35">
         <v>122</v>
       </c>
@@ -8295,7 +8290,7 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="35">
         <v>123</v>
       </c>
@@ -8329,7 +8324,7 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="35">
         <v>124</v>
       </c>
@@ -8363,7 +8358,7 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" s="35">
         <v>125</v>
       </c>
@@ -8397,7 +8392,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127" s="35">
         <v>126</v>
       </c>
@@ -8431,7 +8426,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="35">
         <v>127</v>
       </c>
@@ -8465,7 +8460,7 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129" s="35">
         <v>128</v>
       </c>
@@ -8499,7 +8494,7 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130" s="35">
         <v>129</v>
       </c>
@@ -8533,7 +8528,7 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="35">
         <v>130</v>
       </c>
@@ -8567,7 +8562,7 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
     </row>
-    <row r="132" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="36">
         <v>131</v>
       </c>
@@ -8601,7 +8596,7 @@
       <c r="Q132" s="11"/>
       <c r="R132" s="11"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133" s="34">
         <v>132</v>
       </c>
@@ -8635,7 +8630,7 @@
       <c r="Q133" s="23"/>
       <c r="R133" s="23"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="35">
         <v>133</v>
       </c>
@@ -8669,7 +8664,7 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135" s="35">
         <v>134</v>
       </c>
@@ -8703,7 +8698,7 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="35">
         <v>135</v>
       </c>
@@ -8737,7 +8732,7 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="35">
         <v>136</v>
       </c>
@@ -8771,7 +8766,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="35">
         <v>137</v>
       </c>
@@ -8803,7 +8798,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
     </row>
-    <row r="139" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="36">
         <v>138</v>
       </c>
@@ -8835,7 +8830,7 @@
       <c r="Q139" s="11"/>
       <c r="R139" s="11"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A140" s="35">
         <v>139</v>
       </c>
@@ -8869,7 +8864,7 @@
       <c r="Q140" s="23"/>
       <c r="R140" s="23"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="35">
         <v>140</v>
       </c>
@@ -8903,7 +8898,7 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142" s="35">
         <v>141</v>
       </c>
@@ -8937,7 +8932,7 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="35">
         <v>142</v>
       </c>
@@ -8971,7 +8966,7 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="35">
         <v>143</v>
       </c>
@@ -9005,7 +9000,7 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="35">
         <v>144</v>
       </c>
@@ -9037,7 +9032,7 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
     </row>
-    <row r="146" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="42">
         <v>145</v>
       </c>
@@ -9069,7 +9064,7 @@
       <c r="Q146" s="11"/>
       <c r="R146" s="11"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
         <v>146</v>
       </c>
@@ -9103,7 +9098,7 @@
       <c r="Q147" s="23"/>
       <c r="R147" s="23"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="35">
         <v>147</v>
       </c>
@@ -9137,7 +9132,7 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A149" s="35">
         <v>148</v>
       </c>
@@ -9171,7 +9166,7 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="35">
         <v>149</v>
       </c>
@@ -9205,7 +9200,7 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="35">
         <v>150</v>
       </c>
@@ -9239,7 +9234,7 @@
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="35">
         <v>151</v>
       </c>
@@ -9271,7 +9266,7 @@
       <c r="Q152" s="8"/>
       <c r="R152" s="8"/>
     </row>
-    <row r="153" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="42">
         <v>152</v>
       </c>
@@ -9303,7 +9298,7 @@
       <c r="Q153" s="11"/>
       <c r="R153" s="11"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A154" s="41">
         <v>153</v>
       </c>
@@ -9337,7 +9332,7 @@
       <c r="Q154" s="23"/>
       <c r="R154" s="23"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="35">
         <v>154</v>
       </c>
@@ -9371,7 +9366,7 @@
       <c r="Q155" s="8"/>
       <c r="R155" s="8"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A156" s="35">
         <v>155</v>
       </c>
@@ -9405,7 +9400,7 @@
       <c r="Q156" s="8"/>
       <c r="R156" s="8"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="35">
         <v>156</v>
       </c>
@@ -9439,7 +9434,7 @@
       <c r="Q157" s="8"/>
       <c r="R157" s="8"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="35">
         <v>157</v>
       </c>
@@ -9473,7 +9468,7 @@
       <c r="Q158" s="8"/>
       <c r="R158" s="8"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="35">
         <v>158</v>
       </c>
@@ -9505,7 +9500,7 @@
       <c r="Q159" s="8"/>
       <c r="R159" s="8"/>
     </row>
-    <row r="160" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="42">
         <v>159</v>
       </c>
@@ -9537,7 +9532,7 @@
       <c r="Q160" s="11"/>
       <c r="R160" s="11"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <v>160</v>
       </c>
@@ -9571,7 +9566,7 @@
       <c r="Q161" s="23"/>
       <c r="R161" s="23"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="35">
         <v>161</v>
       </c>
@@ -9605,7 +9600,7 @@
       <c r="Q162" s="8"/>
       <c r="R162" s="8"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A163" s="35">
         <v>162</v>
       </c>
@@ -9639,7 +9634,7 @@
       <c r="Q163" s="8"/>
       <c r="R163" s="8"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="35">
         <v>163</v>
       </c>
@@ -9673,7 +9668,7 @@
       <c r="Q164" s="8"/>
       <c r="R164" s="8"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="35">
         <v>164</v>
       </c>
@@ -9707,7 +9702,7 @@
       <c r="Q165" s="8"/>
       <c r="R165" s="8"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="35">
         <v>165</v>
       </c>
@@ -9739,7 +9734,7 @@
       <c r="Q166" s="8"/>
       <c r="R166" s="8"/>
     </row>
-    <row r="167" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="35">
         <v>166</v>
       </c>
@@ -9771,7 +9766,7 @@
       <c r="Q167" s="11"/>
       <c r="R167" s="11"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A168" s="34">
         <v>167</v>
       </c>
@@ -9803,7 +9798,7 @@
       <c r="Q168" s="23"/>
       <c r="R168" s="23"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="35">
         <v>168</v>
       </c>
@@ -9835,7 +9830,7 @@
       <c r="Q169" s="8"/>
       <c r="R169" s="8"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="35">
         <v>169</v>
       </c>
@@ -9867,7 +9862,7 @@
       <c r="Q170" s="8"/>
       <c r="R170" s="8"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="35">
         <v>170</v>
       </c>
@@ -9899,7 +9894,7 @@
       <c r="Q171" s="8"/>
       <c r="R171" s="8"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="35">
         <v>171</v>
       </c>
@@ -9931,7 +9926,7 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
     </row>
-    <row r="173" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="36">
         <v>172</v>
       </c>
@@ -9963,7 +9958,7 @@
       <c r="Q173" s="11"/>
       <c r="R173" s="11"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A174" s="34">
         <v>173</v>
       </c>
@@ -9995,7 +9990,7 @@
       <c r="Q174" s="23"/>
       <c r="R174" s="23"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="35">
         <v>174</v>
       </c>
@@ -10027,7 +10022,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A176" s="35">
         <v>175</v>
       </c>
@@ -10059,7 +10054,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="35">
         <v>176</v>
       </c>
@@ -10091,7 +10086,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="35">
         <v>177</v>
       </c>
@@ -10123,7 +10118,7 @@
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="35">
         <v>178</v>
       </c>
@@ -10153,7 +10148,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
     </row>
-    <row r="180" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="36">
         <v>179</v>
       </c>
@@ -10183,7 +10178,7 @@
       <c r="Q180" s="11"/>
       <c r="R180" s="11"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A181" s="33">
         <v>180</v>
       </c>
@@ -10215,7 +10210,7 @@
       <c r="Q181" s="23"/>
       <c r="R181" s="112"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="35">
         <v>181</v>
       </c>
@@ -10247,7 +10242,7 @@
       <c r="Q182" s="8"/>
       <c r="R182" s="113"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A183" s="35">
         <v>182</v>
       </c>
@@ -10279,7 +10274,7 @@
       <c r="Q183" s="8"/>
       <c r="R183" s="113"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="35">
         <v>183</v>
       </c>
@@ -10311,7 +10306,7 @@
       <c r="Q184" s="8"/>
       <c r="R184" s="113"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="35">
         <v>184</v>
       </c>
@@ -10343,7 +10338,7 @@
       <c r="Q185" s="8"/>
       <c r="R185" s="113"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="35">
         <v>185</v>
       </c>
@@ -10373,7 +10368,7 @@
       <c r="Q186" s="8"/>
       <c r="R186" s="113"/>
     </row>
-    <row r="187" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="42">
         <v>186</v>
       </c>
@@ -10403,7 +10398,7 @@
       <c r="Q187" s="11"/>
       <c r="R187" s="107"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
         <v>187</v>
       </c>
@@ -10435,7 +10430,7 @@
       <c r="Q188" s="23"/>
       <c r="R188" s="23"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="35">
         <v>188</v>
       </c>
@@ -10467,7 +10462,7 @@
       <c r="Q189" s="8"/>
       <c r="R189" s="8"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A190" s="35">
         <v>189</v>
       </c>
@@ -10499,7 +10494,7 @@
       <c r="Q190" s="8"/>
       <c r="R190" s="8"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="35">
         <v>190</v>
       </c>
@@ -10531,7 +10526,7 @@
       <c r="Q191" s="8"/>
       <c r="R191" s="8"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="35">
         <v>191</v>
       </c>
@@ -10563,7 +10558,7 @@
       <c r="Q192" s="8"/>
       <c r="R192" s="8"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="35">
         <v>192</v>
       </c>
@@ -10593,7 +10588,7 @@
       <c r="Q193" s="8"/>
       <c r="R193" s="8"/>
     </row>
-    <row r="194" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="42">
         <v>193</v>
       </c>
@@ -10623,7 +10618,7 @@
       <c r="Q194" s="11"/>
       <c r="R194" s="11"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A195" s="41">
         <v>194</v>
       </c>
@@ -10655,7 +10650,7 @@
       <c r="Q195" s="23"/>
       <c r="R195" s="23"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="35">
         <v>195</v>
       </c>
@@ -10687,7 +10682,7 @@
       <c r="Q196" s="8"/>
       <c r="R196" s="8"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A197" s="35">
         <v>196</v>
       </c>
@@ -10719,7 +10714,7 @@
       <c r="Q197" s="8"/>
       <c r="R197" s="8"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="35">
         <v>197</v>
       </c>
@@ -10751,7 +10746,7 @@
       <c r="Q198" s="8"/>
       <c r="R198" s="8"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="35">
         <v>198</v>
       </c>
@@ -10783,7 +10778,7 @@
       <c r="Q199" s="8"/>
       <c r="R199" s="8"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="35">
         <v>199</v>
       </c>
@@ -10813,7 +10808,7 @@
       <c r="Q200" s="8"/>
       <c r="R200" s="8"/>
     </row>
-    <row r="201" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="42">
         <v>200</v>
       </c>
@@ -10843,7 +10838,7 @@
       <c r="Q201" s="11"/>
       <c r="R201" s="11"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A202" s="35">
         <v>201</v>
       </c>
@@ -10875,7 +10870,7 @@
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="35">
         <v>202</v>
       </c>
@@ -10907,7 +10902,7 @@
       <c r="Q203" s="8"/>
       <c r="R203" s="8"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A204" s="35">
         <v>203</v>
       </c>
@@ -10939,7 +10934,7 @@
       <c r="Q204" s="8"/>
       <c r="R204" s="8"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="35">
         <v>204</v>
       </c>
@@ -10971,7 +10966,7 @@
       <c r="Q205" s="8"/>
       <c r="R205" s="8"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="35">
         <v>205</v>
       </c>
@@ -11003,7 +10998,7 @@
       <c r="Q206" s="8"/>
       <c r="R206" s="8"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="35">
         <v>206</v>
       </c>
@@ -11033,7 +11028,7 @@
       <c r="Q207" s="8"/>
       <c r="R207" s="8"/>
     </row>
-    <row r="208" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="35">
         <v>207</v>
       </c>
@@ -11063,7 +11058,7 @@
       <c r="Q208" s="11"/>
       <c r="R208" s="11"/>
     </row>
-    <row r="209" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="43">
         <v>208</v>
       </c>
@@ -11091,7 +11086,7 @@
       <c r="Q209" s="110"/>
       <c r="R209" s="110"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <v>209</v>
       </c>
@@ -11123,7 +11118,7 @@
       <c r="Q210" s="13"/>
       <c r="R210" s="13"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <v>210</v>
       </c>
@@ -11155,7 +11150,7 @@
       <c r="Q211" s="13"/>
       <c r="R211" s="13"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="39">
         <v>211</v>
       </c>
@@ -11187,7 +11182,7 @@
       <c r="Q212" s="13"/>
       <c r="R212" s="13"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="39">
         <v>212</v>
       </c>
@@ -11219,7 +11214,7 @@
       <c r="Q213" s="13"/>
       <c r="R213" s="13"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <v>213</v>
       </c>
@@ -11251,7 +11246,7 @@
       <c r="Q214" s="13"/>
       <c r="R214" s="13"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="39">
         <v>214</v>
       </c>
@@ -11283,7 +11278,7 @@
       <c r="Q215" s="13"/>
       <c r="R215" s="13"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="39">
         <v>215</v>
       </c>
@@ -11315,7 +11310,7 @@
       <c r="Q216" s="13"/>
       <c r="R216" s="13"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="39">
         <v>216</v>
       </c>
@@ -11347,7 +11342,7 @@
       <c r="Q217" s="13"/>
       <c r="R217" s="13"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <v>217</v>
       </c>
@@ -11379,7 +11374,7 @@
       <c r="Q218" s="13"/>
       <c r="R218" s="13"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="39">
         <v>218</v>
       </c>
@@ -11411,7 +11406,7 @@
       <c r="Q219" s="13"/>
       <c r="R219" s="13"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <v>219</v>
       </c>
@@ -11443,7 +11438,7 @@
       <c r="Q220" s="13"/>
       <c r="R220" s="13"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="39">
         <v>220</v>
       </c>
@@ -11475,7 +11470,7 @@
       <c r="Q221" s="13"/>
       <c r="R221" s="13"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <v>221</v>
       </c>
@@ -11507,7 +11502,7 @@
       <c r="Q222" s="13"/>
       <c r="R222" s="13"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <v>222</v>
       </c>
@@ -11539,7 +11534,7 @@
       <c r="Q223" s="13"/>
       <c r="R223" s="13"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <v>223</v>
       </c>
@@ -11571,7 +11566,7 @@
       <c r="Q224" s="13"/>
       <c r="R224" s="13"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <v>224</v>
       </c>
@@ -11603,7 +11598,7 @@
       <c r="Q225" s="13"/>
       <c r="R225" s="13"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="39">
         <v>225</v>
       </c>
@@ -11635,7 +11630,7 @@
       <c r="Q226" s="13"/>
       <c r="R226" s="13"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <v>226</v>
       </c>
@@ -11667,7 +11662,7 @@
       <c r="Q227" s="13"/>
       <c r="R227" s="13"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <v>227</v>
       </c>
@@ -11699,7 +11694,7 @@
       <c r="Q228" s="13"/>
       <c r="R228" s="13"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="39">
         <v>228</v>
       </c>
@@ -11731,7 +11726,7 @@
       <c r="Q229" s="13"/>
       <c r="R229" s="13"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="39">
         <v>229</v>
       </c>
@@ -11763,7 +11758,7 @@
       <c r="Q230" s="13"/>
       <c r="R230" s="13"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <v>230</v>
       </c>
@@ -11795,7 +11790,7 @@
       <c r="Q231" s="13"/>
       <c r="R231" s="13"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="39">
         <v>231</v>
       </c>
@@ -11827,7 +11822,7 @@
       <c r="Q232" s="13"/>
       <c r="R232" s="13"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="39">
         <v>232</v>
       </c>
@@ -11859,7 +11854,7 @@
       <c r="Q233" s="13"/>
       <c r="R233" s="13"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="39">
         <v>233</v>
       </c>
@@ -11891,7 +11886,7 @@
       <c r="Q234" s="13"/>
       <c r="R234" s="13"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <v>234</v>
       </c>
@@ -11923,7 +11918,7 @@
       <c r="Q235" s="13"/>
       <c r="R235" s="13"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="39">
         <v>235</v>
       </c>
@@ -11955,7 +11950,7 @@
       <c r="Q236" s="13"/>
       <c r="R236" s="13"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="39">
         <v>236</v>
       </c>
@@ -11987,7 +11982,7 @@
       <c r="Q237" s="13"/>
       <c r="R237" s="13"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <v>237</v>
       </c>
@@ -12019,7 +12014,7 @@
       <c r="Q238" s="13"/>
       <c r="R238" s="13"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A239" s="39">
         <v>238</v>
       </c>
@@ -12051,7 +12046,7 @@
       <c r="Q239" s="13"/>
       <c r="R239" s="13"/>
     </row>
-    <row r="240" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="40">
         <v>239</v>
       </c>
@@ -12081,7 +12076,7 @@
       <c r="Q240" s="18"/>
       <c r="R240" s="18"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="34">
         <v>240</v>
       </c>
@@ -12111,7 +12106,7 @@
       <c r="Q241" s="23"/>
       <c r="R241" s="23"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A242" s="35">
         <v>241</v>
       </c>
@@ -12143,7 +12138,7 @@
       </c>
       <c r="R242" s="8"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A243" s="35">
         <v>242</v>
       </c>
@@ -12175,7 +12170,7 @@
       </c>
       <c r="R243" s="8"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A244" s="35">
         <v>243</v>
       </c>
@@ -12207,7 +12202,7 @@
       </c>
       <c r="R244" s="8"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A245" s="35">
         <v>244</v>
       </c>
@@ -12239,7 +12234,7 @@
       </c>
       <c r="R245" s="8"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="35">
         <v>245</v>
       </c>
@@ -12271,7 +12266,7 @@
       </c>
       <c r="R246" s="8"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="35">
         <v>246</v>
       </c>
@@ -12303,7 +12298,7 @@
       </c>
       <c r="R247" s="8"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A248" s="35">
         <v>247</v>
       </c>
@@ -12335,7 +12330,7 @@
       </c>
       <c r="R248" s="8"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A249" s="35">
         <v>248</v>
       </c>
@@ -12367,7 +12362,7 @@
       </c>
       <c r="R249" s="8"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A250" s="35">
         <v>249</v>
       </c>
@@ -12399,7 +12394,7 @@
       </c>
       <c r="R250" s="8"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="35">
         <v>250</v>
       </c>
@@ -12431,7 +12426,7 @@
       </c>
       <c r="R251" s="8"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A252" s="35">
         <v>251</v>
       </c>
@@ -12463,7 +12458,7 @@
       </c>
       <c r="R252" s="8"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A253" s="35">
         <v>252</v>
       </c>
@@ -12495,7 +12490,7 @@
       </c>
       <c r="R253" s="8"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A254" s="35">
         <v>253</v>
       </c>
@@ -12527,7 +12522,7 @@
       </c>
       <c r="R254" s="8"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A255" s="35">
         <v>254</v>
       </c>
@@ -12559,7 +12554,7 @@
       </c>
       <c r="R255" s="8"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A256" s="35">
         <v>255</v>
       </c>
@@ -12591,7 +12586,7 @@
       </c>
       <c r="R256" s="8"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A257" s="35">
         <v>256</v>
       </c>
@@ -12623,7 +12618,7 @@
       </c>
       <c r="R257" s="8"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="35">
         <v>257</v>
       </c>
@@ -12655,7 +12650,7 @@
       </c>
       <c r="R258" s="8"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A259" s="35">
         <v>258</v>
       </c>
@@ -12687,7 +12682,7 @@
       </c>
       <c r="R259" s="8"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A260" s="35">
         <v>259</v>
       </c>
@@ -12719,7 +12714,7 @@
       </c>
       <c r="R260" s="8"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A261" s="35">
         <v>260</v>
       </c>
@@ -12751,7 +12746,7 @@
       </c>
       <c r="R261" s="8"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A262" s="35">
         <v>261</v>
       </c>
@@ -12783,7 +12778,7 @@
       </c>
       <c r="R262" s="8"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A263" s="35">
         <v>262</v>
       </c>
@@ -12815,7 +12810,7 @@
       </c>
       <c r="R263" s="8"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A264" s="35">
         <v>263</v>
       </c>
@@ -12847,7 +12842,7 @@
       </c>
       <c r="R264" s="8"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A265" s="35">
         <v>264</v>
       </c>
@@ -12879,7 +12874,7 @@
       </c>
       <c r="R265" s="8"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A266" s="35">
         <v>265</v>
       </c>
@@ -12911,7 +12906,7 @@
       </c>
       <c r="R266" s="8"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A267" s="35">
         <v>266</v>
       </c>
@@ -12943,7 +12938,7 @@
       </c>
       <c r="R267" s="8"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="35">
         <v>267</v>
       </c>
@@ -12975,7 +12970,7 @@
       </c>
       <c r="R268" s="8"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A269" s="35">
         <v>268</v>
       </c>
@@ -13007,7 +13002,7 @@
       </c>
       <c r="R269" s="8"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A270" s="35">
         <v>269</v>
       </c>
@@ -13039,7 +13034,7 @@
       </c>
       <c r="R270" s="8"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A271" s="35">
         <v>270</v>
       </c>
@@ -13071,7 +13066,7 @@
       </c>
       <c r="R271" s="8"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A272" s="35">
         <v>271</v>
       </c>
@@ -13103,7 +13098,7 @@
       </c>
       <c r="R272" s="8"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A273" s="35">
         <v>272</v>
       </c>
@@ -13135,7 +13130,7 @@
       </c>
       <c r="R273" s="8"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="35">
         <v>273</v>
       </c>
@@ -13167,7 +13162,7 @@
       </c>
       <c r="R274" s="8"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A275" s="35">
         <v>274</v>
       </c>
@@ -13199,7 +13194,7 @@
       </c>
       <c r="R275" s="8"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -13231,7 +13226,7 @@
       </c>
       <c r="R276" s="8"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="35">
         <v>276</v>
       </c>
@@ -13263,7 +13258,7 @@
       </c>
       <c r="R277" s="8"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="35">
         <v>277</v>
       </c>
@@ -13295,7 +13290,7 @@
       </c>
       <c r="R278" s="8"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A279" s="35">
         <v>278</v>
       </c>
@@ -13327,7 +13322,7 @@
       </c>
       <c r="R279" s="8"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A280" s="35">
         <v>279</v>
       </c>
@@ -13359,7 +13354,7 @@
       </c>
       <c r="R280" s="8"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A281" s="35">
         <v>280</v>
       </c>
@@ -13391,7 +13386,7 @@
       </c>
       <c r="R281" s="8"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A282" s="35">
         <v>281</v>
       </c>
@@ -13423,7 +13418,7 @@
       </c>
       <c r="R282" s="8"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="35">
         <v>282</v>
       </c>
@@ -13455,7 +13450,7 @@
       </c>
       <c r="R283" s="8"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="35">
         <v>283</v>
       </c>
@@ -13487,7 +13482,7 @@
       </c>
       <c r="R284" s="8"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="35">
         <v>284</v>
       </c>
@@ -13519,7 +13514,7 @@
       </c>
       <c r="R285" s="8"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="35">
         <v>285</v>
       </c>
@@ -13551,7 +13546,7 @@
       </c>
       <c r="R286" s="8"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A287" s="35">
         <v>286</v>
       </c>
@@ -13583,7 +13578,7 @@
       </c>
       <c r="R287" s="8"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -13615,7 +13610,7 @@
       </c>
       <c r="R288" s="8"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="35">
         <v>288</v>
       </c>
@@ -13647,7 +13642,7 @@
       </c>
       <c r="R289" s="8"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A290" s="35">
         <v>289</v>
       </c>
@@ -13679,7 +13674,7 @@
       </c>
       <c r="R290" s="8"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A291" s="35">
         <v>290</v>
       </c>
@@ -13711,7 +13706,7 @@
       </c>
       <c r="R291" s="8"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A292" s="35">
         <v>291</v>
       </c>
@@ -13743,7 +13738,7 @@
       </c>
       <c r="R292" s="8"/>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A293" s="35">
         <v>292</v>
       </c>
@@ -13775,7 +13770,7 @@
       </c>
       <c r="R293" s="8"/>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="35">
         <v>293</v>
       </c>
@@ -13807,7 +13802,7 @@
       </c>
       <c r="R294" s="8"/>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="35">
         <v>294</v>
       </c>
@@ -13839,7 +13834,7 @@
       </c>
       <c r="R295" s="8"/>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A296" s="35">
         <v>295</v>
       </c>
@@ -13871,7 +13866,7 @@
       </c>
       <c r="R296" s="8"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="35">
         <v>296</v>
       </c>
@@ -13903,7 +13898,7 @@
       </c>
       <c r="R297" s="8"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A298" s="35">
         <v>297</v>
       </c>
@@ -13935,7 +13930,7 @@
       </c>
       <c r="R298" s="8"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A299" s="35">
         <v>298</v>
       </c>
@@ -13967,7 +13962,7 @@
       </c>
       <c r="R299" s="8"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A300" s="35">
         <v>299</v>
       </c>
@@ -13999,7 +13994,7 @@
       </c>
       <c r="R300" s="8"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="35">
         <v>300</v>
       </c>
@@ -14031,7 +14026,7 @@
       </c>
       <c r="R301" s="8"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A302" s="35">
         <v>301</v>
       </c>
@@ -14063,7 +14058,7 @@
       </c>
       <c r="R302" s="8"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A303" s="35">
         <v>302</v>
       </c>
@@ -14095,7 +14090,7 @@
       </c>
       <c r="R303" s="8"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A304" s="35">
         <v>303</v>
       </c>
@@ -14125,7 +14120,7 @@
       </c>
       <c r="R304" s="8"/>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A305" s="35">
         <v>304</v>
       </c>
@@ -14157,7 +14152,7 @@
       </c>
       <c r="R305" s="8"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="35">
         <v>305</v>
       </c>
@@ -14187,7 +14182,7 @@
       <c r="Q306" s="8"/>
       <c r="R306" s="8"/>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="35">
         <v>306</v>
       </c>
@@ -14219,7 +14214,7 @@
       </c>
       <c r="R307" s="8"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A308" s="35">
         <v>307</v>
       </c>
@@ -14251,7 +14246,7 @@
       </c>
       <c r="R308" s="8"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="35">
         <v>308</v>
       </c>
@@ -14281,7 +14276,7 @@
       <c r="Q309" s="8"/>
       <c r="R309" s="8"/>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="35">
         <v>309</v>
       </c>
@@ -14313,7 +14308,7 @@
       </c>
       <c r="R310" s="8"/>
     </row>
-    <row r="311" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="36">
         <v>310</v>
       </c>
@@ -14343,7 +14338,7 @@
       </c>
       <c r="R311" s="8"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="38">
         <v>311</v>
       </c>
@@ -14373,7 +14368,7 @@
       <c r="Q312" s="20"/>
       <c r="R312" s="20"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="44">
         <v>312</v>
       </c>
@@ -14405,7 +14400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="39">
         <v>313</v>
       </c>
@@ -14437,7 +14432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A315" s="39">
         <v>314</v>
       </c>
@@ -14469,7 +14464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <v>315</v>
       </c>
@@ -14501,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="39">
         <v>316</v>
       </c>
@@ -14533,7 +14528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A318" s="45">
         <v>317</v>
       </c>
@@ -14565,7 +14560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A319" s="44">
         <v>318</v>
       </c>
@@ -14597,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A320" s="39">
         <v>319</v>
       </c>
@@ -14629,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A321" s="39">
         <v>320</v>
       </c>
@@ -14661,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A322" s="39">
         <v>321</v>
       </c>
@@ -14693,7 +14688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A323" s="39">
         <v>322</v>
       </c>
@@ -14725,7 +14720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A324" s="45">
         <v>323</v>
       </c>
@@ -14757,7 +14752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="44">
         <v>324</v>
       </c>
@@ -14789,7 +14784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <v>325</v>
       </c>
@@ -14821,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A327" s="39">
         <v>326</v>
       </c>
@@ -14853,7 +14848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="39">
         <v>327</v>
       </c>
@@ -14885,7 +14880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <v>328</v>
       </c>
@@ -14917,7 +14912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A330" s="45">
         <v>329</v>
       </c>
@@ -14949,7 +14944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="44">
         <v>330</v>
       </c>
@@ -14981,7 +14976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A332" s="39">
         <v>331</v>
       </c>
@@ -15013,7 +15008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <v>332</v>
       </c>
@@ -15045,7 +15040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A334" s="39">
         <v>333</v>
       </c>
@@ -15077,7 +15072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <v>334</v>
       </c>
@@ -15109,7 +15104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A336" s="45">
         <v>335</v>
       </c>
@@ -15141,7 +15136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="44">
         <v>336</v>
       </c>
@@ -15173,7 +15168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A338" s="39">
         <v>337</v>
       </c>
@@ -15205,7 +15200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A339" s="39">
         <v>338</v>
       </c>
@@ -15237,7 +15232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A340" s="39">
         <v>339</v>
       </c>
@@ -15269,7 +15264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A341" s="39">
         <v>340</v>
       </c>
@@ -15301,7 +15296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A342" s="45">
         <v>341</v>
       </c>
@@ -15333,7 +15328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <v>342</v>
       </c>
@@ -15365,7 +15360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="39">
         <v>343</v>
       </c>
@@ -15397,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <v>344</v>
       </c>
@@ -15429,7 +15424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="39">
         <v>345</v>
       </c>
@@ -15461,7 +15456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="39">
         <v>346</v>
       </c>
@@ -15493,7 +15488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="39">
         <v>347</v>
       </c>
@@ -15525,7 +15520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <v>348</v>
       </c>
@@ -15557,7 +15552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
         <v>349</v>
       </c>
@@ -15589,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>350</v>
       </c>
@@ -15621,7 +15616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>351</v>
       </c>
@@ -15653,7 +15648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="39">
         <v>352</v>
       </c>
@@ -15685,7 +15680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <v>353</v>
       </c>
@@ -15717,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <v>354</v>
       </c>
@@ -15749,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <v>355</v>
       </c>
@@ -15781,7 +15776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <v>356</v>
       </c>
@@ -15813,7 +15808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <v>357</v>
       </c>
@@ -15845,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <v>358</v>
       </c>
@@ -15877,7 +15872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <v>359</v>
       </c>
@@ -15909,7 +15904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <v>360</v>
       </c>
@@ -15941,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>361</v>
       </c>
@@ -15973,7 +15968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>362</v>
       </c>
@@ -16005,7 +16000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <v>363</v>
       </c>
@@ -16037,7 +16032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="39">
         <v>364</v>
       </c>
@@ -16067,7 +16062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366" s="34"/>
       <c r="B366" s="21" t="s">
         <v>563</v>
@@ -16095,7 +16090,7 @@
       <c r="Q366" s="23"/>
       <c r="R366" s="23"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="35">
         <v>365</v>
       </c>
@@ -16125,7 +16120,7 @@
       <c r="Q367" s="8"/>
       <c r="R367" s="8"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368" s="35">
         <v>366</v>
       </c>
@@ -16155,7 +16150,7 @@
       <c r="Q368" s="8"/>
       <c r="R368" s="8"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" s="35">
         <v>367</v>
       </c>
@@ -16185,7 +16180,7 @@
       <c r="Q369" s="8"/>
       <c r="R369" s="8"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" s="35">
         <v>368</v>
       </c>
@@ -16215,7 +16210,7 @@
       <c r="Q370" s="8"/>
       <c r="R370" s="8"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" s="35">
         <v>369</v>
       </c>
@@ -16245,7 +16240,7 @@
       <c r="Q371" s="8"/>
       <c r="R371" s="8"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" s="35">
         <v>370</v>
       </c>
@@ -16273,7 +16268,7 @@
       <c r="Q372" s="8"/>
       <c r="R372" s="8"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" s="35">
         <v>371</v>
       </c>
@@ -16303,7 +16298,7 @@
       <c r="Q373" s="8"/>
       <c r="R373" s="8"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374" s="35">
         <v>372</v>
       </c>
@@ -16333,7 +16328,7 @@
       <c r="Q374" s="8"/>
       <c r="R374" s="8"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375" s="35">
         <v>373</v>
       </c>
@@ -16363,7 +16358,7 @@
       <c r="Q375" s="8"/>
       <c r="R375" s="8"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" s="35">
         <v>374</v>
       </c>
@@ -16393,7 +16388,7 @@
       <c r="Q376" s="8"/>
       <c r="R376" s="8"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377" s="35">
         <v>375</v>
       </c>
@@ -16423,7 +16418,7 @@
       <c r="Q377" s="8"/>
       <c r="R377" s="8"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378" s="35">
         <v>376</v>
       </c>
@@ -16453,7 +16448,7 @@
       <c r="Q378" s="8"/>
       <c r="R378" s="8"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="35">
         <v>377</v>
       </c>
@@ -16483,7 +16478,7 @@
       <c r="Q379" s="8"/>
       <c r="R379" s="8"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380" s="35">
         <v>378</v>
       </c>
@@ -16513,7 +16508,7 @@
       <c r="Q380" s="8"/>
       <c r="R380" s="8"/>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381" s="35">
         <v>379</v>
       </c>
@@ -16543,7 +16538,7 @@
       <c r="Q381" s="8"/>
       <c r="R381" s="8"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382" s="35">
         <v>380</v>
       </c>
@@ -16573,7 +16568,7 @@
       <c r="Q382" s="8"/>
       <c r="R382" s="8"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383" s="35">
         <v>381</v>
       </c>
@@ -16603,7 +16598,7 @@
       <c r="Q383" s="8"/>
       <c r="R383" s="8"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384" s="35">
         <v>382</v>
       </c>
@@ -16633,7 +16628,7 @@
       <c r="Q384" s="8"/>
       <c r="R384" s="8"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385" s="35">
         <v>383</v>
       </c>
@@ -16663,7 +16658,7 @@
       <c r="Q385" s="8"/>
       <c r="R385" s="8"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386" s="35">
         <v>384</v>
       </c>
@@ -16693,7 +16688,7 @@
       <c r="Q386" s="8"/>
       <c r="R386" s="8"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387" s="35">
         <v>385</v>
       </c>
@@ -16723,7 +16718,7 @@
       <c r="Q387" s="8"/>
       <c r="R387" s="8"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388" s="35">
         <v>386</v>
       </c>
@@ -16753,7 +16748,7 @@
       <c r="Q388" s="8"/>
       <c r="R388" s="8"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389" s="35">
         <v>387</v>
       </c>
@@ -16783,7 +16778,7 @@
       <c r="Q389" s="8"/>
       <c r="R389" s="8"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390" s="35">
         <v>388</v>
       </c>
@@ -16813,7 +16808,7 @@
       <c r="Q390" s="8"/>
       <c r="R390" s="8"/>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" s="35">
         <v>389</v>
       </c>
@@ -16843,7 +16838,7 @@
       <c r="Q391" s="8"/>
       <c r="R391" s="8"/>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392" s="35">
         <v>390</v>
       </c>
@@ -16873,7 +16868,7 @@
       <c r="Q392" s="8"/>
       <c r="R392" s="8"/>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393" s="35">
         <v>391</v>
       </c>
@@ -16903,7 +16898,7 @@
       <c r="Q393" s="8"/>
       <c r="R393" s="8"/>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394" s="35">
         <v>392</v>
       </c>
@@ -16933,7 +16928,7 @@
       <c r="Q394" s="8"/>
       <c r="R394" s="8"/>
     </row>
-    <row r="395" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="36">
         <v>393</v>
       </c>
@@ -16961,7 +16956,7 @@
       <c r="Q395" s="11"/>
       <c r="R395" s="11"/>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396" s="38">
         <v>394</v>
       </c>
@@ -16991,7 +16986,7 @@
       <c r="Q396" s="20"/>
       <c r="R396" s="20"/>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <v>395</v>
       </c>
@@ -17021,7 +17016,7 @@
       <c r="Q397" s="13"/>
       <c r="R397" s="13"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>396</v>
       </c>
@@ -17051,7 +17046,7 @@
       <c r="Q398" s="13"/>
       <c r="R398" s="13"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
         <v>397</v>
       </c>
@@ -17081,7 +17076,7 @@
       <c r="Q399" s="13"/>
       <c r="R399" s="13"/>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>398</v>
       </c>
@@ -17111,7 +17106,7 @@
       <c r="Q400" s="13"/>
       <c r="R400" s="13"/>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <v>399</v>
       </c>
@@ -17141,7 +17136,7 @@
       <c r="Q401" s="13"/>
       <c r="R401" s="13"/>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>400</v>
       </c>
@@ -17171,7 +17166,7 @@
       <c r="Q402" s="13"/>
       <c r="R402" s="13"/>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <v>401</v>
       </c>
@@ -17201,7 +17196,7 @@
       <c r="Q403" s="13"/>
       <c r="R403" s="13"/>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404" s="39">
         <v>402</v>
       </c>
@@ -17231,7 +17226,7 @@
       <c r="Q404" s="13"/>
       <c r="R404" s="13"/>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" s="39">
         <v>403</v>
       </c>
@@ -17261,7 +17256,7 @@
       <c r="Q405" s="13"/>
       <c r="R405" s="13"/>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <v>404</v>
       </c>
@@ -17291,7 +17286,7 @@
       <c r="Q406" s="13"/>
       <c r="R406" s="13"/>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" s="39">
         <v>405</v>
       </c>
@@ -17321,7 +17316,7 @@
       <c r="Q407" s="13"/>
       <c r="R407" s="13"/>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A408" s="39">
         <v>406</v>
       </c>
@@ -17351,7 +17346,7 @@
       <c r="Q408" s="13"/>
       <c r="R408" s="13"/>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A409" s="39">
         <v>407</v>
       </c>
@@ -17381,7 +17376,7 @@
       <c r="Q409" s="13"/>
       <c r="R409" s="13"/>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410" s="39">
         <v>408</v>
       </c>
@@ -17411,7 +17406,7 @@
       <c r="Q410" s="13"/>
       <c r="R410" s="13"/>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411" s="39">
         <v>409</v>
       </c>
@@ -17441,7 +17436,7 @@
       <c r="Q411" s="13"/>
       <c r="R411" s="13"/>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" s="39">
         <v>410</v>
       </c>
@@ -17471,7 +17466,7 @@
       <c r="Q412" s="13"/>
       <c r="R412" s="13"/>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413" s="39">
         <v>411</v>
       </c>
@@ -17501,7 +17496,7 @@
       <c r="Q413" s="13"/>
       <c r="R413" s="13"/>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A414" s="39">
         <v>412</v>
       </c>
@@ -17531,7 +17526,7 @@
       <c r="Q414" s="13"/>
       <c r="R414" s="13"/>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A415" s="39">
         <v>413</v>
       </c>
@@ -17561,7 +17556,7 @@
       <c r="Q415" s="13"/>
       <c r="R415" s="13"/>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416" s="39">
         <v>414</v>
       </c>
@@ -17591,7 +17586,7 @@
       <c r="Q416" s="13"/>
       <c r="R416" s="13"/>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417" s="39">
         <v>415</v>
       </c>
@@ -17621,7 +17616,7 @@
       <c r="Q417" s="13"/>
       <c r="R417" s="13"/>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418" s="39">
         <v>416</v>
       </c>
@@ -17651,7 +17646,7 @@
       <c r="Q418" s="13"/>
       <c r="R418" s="13"/>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
         <v>417</v>
       </c>
@@ -17681,7 +17676,7 @@
       <c r="Q419" s="13"/>
       <c r="R419" s="13"/>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
         <v>418</v>
       </c>
@@ -17711,7 +17706,7 @@
       <c r="Q420" s="13"/>
       <c r="R420" s="13"/>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421" s="39">
         <v>419</v>
       </c>
@@ -17741,7 +17736,7 @@
       <c r="Q421" s="13"/>
       <c r="R421" s="13"/>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
         <v>420</v>
       </c>
@@ -17771,7 +17766,7 @@
       <c r="Q422" s="13"/>
       <c r="R422" s="13"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
         <v>421</v>
       </c>
@@ -17801,7 +17796,7 @@
       <c r="Q423" s="13"/>
       <c r="R423" s="13"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
         <v>422</v>
       </c>
@@ -17831,7 +17826,7 @@
       <c r="Q424" s="13"/>
       <c r="R424" s="13"/>
     </row>
-    <row r="425" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>423</v>
       </c>
@@ -17859,7 +17854,7 @@
       <c r="Q425" s="18"/>
       <c r="R425" s="18"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426" s="34">
         <v>424</v>
       </c>
@@ -17889,7 +17884,7 @@
       <c r="Q426" s="23"/>
       <c r="R426" s="23"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427" s="35">
         <v>425</v>
       </c>
@@ -17919,7 +17914,7 @@
       <c r="Q427" s="8"/>
       <c r="R427" s="8"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A428" s="35">
         <v>426</v>
       </c>
@@ -17949,7 +17944,7 @@
       <c r="Q428" s="8"/>
       <c r="R428" s="8"/>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A429" s="35">
         <v>427</v>
       </c>
@@ -17979,7 +17974,7 @@
       <c r="Q429" s="8"/>
       <c r="R429" s="8"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430" s="35">
         <v>428</v>
       </c>
@@ -18009,7 +18004,7 @@
       <c r="Q430" s="8"/>
       <c r="R430" s="8"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431" s="35">
         <v>429</v>
       </c>
@@ -18039,7 +18034,7 @@
       <c r="Q431" s="8"/>
       <c r="R431" s="8"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432" s="35">
         <v>430</v>
       </c>
@@ -18069,7 +18064,7 @@
       <c r="Q432" s="8"/>
       <c r="R432" s="8"/>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A433" s="35">
         <v>431</v>
       </c>
@@ -18099,7 +18094,7 @@
       <c r="Q433" s="8"/>
       <c r="R433" s="8"/>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434" s="35">
         <v>432</v>
       </c>
@@ -18129,7 +18124,7 @@
       <c r="Q434" s="8"/>
       <c r="R434" s="8"/>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435" s="35">
         <v>433</v>
       </c>
@@ -18159,7 +18154,7 @@
       <c r="Q435" s="8"/>
       <c r="R435" s="8"/>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" s="35">
         <v>434</v>
       </c>
@@ -18189,7 +18184,7 @@
       <c r="Q436" s="8"/>
       <c r="R436" s="8"/>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437" s="35">
         <v>435</v>
       </c>
@@ -18219,7 +18214,7 @@
       <c r="Q437" s="8"/>
       <c r="R437" s="8"/>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438" s="35">
         <v>436</v>
       </c>
@@ -18249,7 +18244,7 @@
       <c r="Q438" s="8"/>
       <c r="R438" s="8"/>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439" s="35">
         <v>437</v>
       </c>
@@ -18279,7 +18274,7 @@
       <c r="Q439" s="8"/>
       <c r="R439" s="8"/>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" s="35">
         <v>438</v>
       </c>
@@ -18309,7 +18304,7 @@
       <c r="Q440" s="8"/>
       <c r="R440" s="8"/>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" s="35">
         <v>439</v>
       </c>
@@ -18339,7 +18334,7 @@
       <c r="Q441" s="8"/>
       <c r="R441" s="8"/>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A442" s="35">
         <v>440</v>
       </c>
@@ -18369,7 +18364,7 @@
       <c r="Q442" s="8"/>
       <c r="R442" s="8"/>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443" s="35">
         <v>441</v>
       </c>
@@ -18399,7 +18394,7 @@
       <c r="Q443" s="8"/>
       <c r="R443" s="8"/>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444" s="35">
         <v>442</v>
       </c>
@@ -18429,7 +18424,7 @@
       <c r="Q444" s="8"/>
       <c r="R444" s="8"/>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445" s="35">
         <v>443</v>
       </c>
@@ -18459,7 +18454,7 @@
       <c r="Q445" s="8"/>
       <c r="R445" s="8"/>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446" s="35">
         <v>444</v>
       </c>
@@ -18489,7 +18484,7 @@
       <c r="Q446" s="8"/>
       <c r="R446" s="8"/>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A447" s="35">
         <v>445</v>
       </c>
@@ -18519,7 +18514,7 @@
       <c r="Q447" s="8"/>
       <c r="R447" s="8"/>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448" s="35">
         <v>446</v>
       </c>
@@ -18549,7 +18544,7 @@
       <c r="Q448" s="8"/>
       <c r="R448" s="8"/>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="35">
         <v>447</v>
       </c>
@@ -18579,7 +18574,7 @@
       <c r="Q449" s="8"/>
       <c r="R449" s="8"/>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450" s="35">
         <v>448</v>
       </c>
@@ -18609,7 +18604,7 @@
       <c r="Q450" s="8"/>
       <c r="R450" s="8"/>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" s="41">
         <v>449</v>
       </c>
@@ -18639,7 +18634,7 @@
       <c r="Q451" s="25"/>
       <c r="R451" s="25"/>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="35">
         <v>450</v>
       </c>
@@ -18669,7 +18664,7 @@
       <c r="Q452" s="8"/>
       <c r="R452" s="8"/>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453" s="35">
         <v>451</v>
       </c>
@@ -18699,7 +18694,7 @@
       <c r="Q453" s="8"/>
       <c r="R453" s="8"/>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454" s="35">
         <v>452</v>
       </c>
@@ -18729,7 +18724,7 @@
       <c r="Q454" s="8"/>
       <c r="R454" s="8"/>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455" s="35">
         <v>453</v>
       </c>
@@ -18759,7 +18754,7 @@
       <c r="Q455" s="8"/>
       <c r="R455" s="8"/>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" s="35">
         <v>454</v>
       </c>
@@ -18789,7 +18784,7 @@
       <c r="Q456" s="8"/>
       <c r="R456" s="8"/>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457" s="42">
         <v>455</v>
       </c>
@@ -18819,7 +18814,7 @@
       <c r="Q457" s="27"/>
       <c r="R457" s="27"/>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458" s="41">
         <v>456</v>
       </c>
@@ -18849,7 +18844,7 @@
       <c r="Q458" s="25"/>
       <c r="R458" s="25"/>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A459" s="35">
         <v>457</v>
       </c>
@@ -18879,7 +18874,7 @@
       <c r="Q459" s="8"/>
       <c r="R459" s="8"/>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A460" s="35">
         <v>458</v>
       </c>
@@ -18909,7 +18904,7 @@
       <c r="Q460" s="8"/>
       <c r="R460" s="8"/>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461" s="35">
         <v>459</v>
       </c>
@@ -18939,7 +18934,7 @@
       <c r="Q461" s="8"/>
       <c r="R461" s="8"/>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462" s="35">
         <v>460</v>
       </c>
@@ -18969,7 +18964,7 @@
       <c r="Q462" s="8"/>
       <c r="R462" s="8"/>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A463" s="35">
         <v>461</v>
       </c>
@@ -18999,7 +18994,7 @@
       <c r="Q463" s="8"/>
       <c r="R463" s="8"/>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A464" s="42">
         <v>462</v>
       </c>
@@ -19029,7 +19024,7 @@
       <c r="Q464" s="27"/>
       <c r="R464" s="27"/>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" s="41">
         <v>463</v>
       </c>
@@ -19059,7 +19054,7 @@
       <c r="Q465" s="25"/>
       <c r="R465" s="25"/>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A466" s="35">
         <v>464</v>
       </c>
@@ -19089,7 +19084,7 @@
       <c r="Q466" s="8"/>
       <c r="R466" s="8"/>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" s="35">
         <v>465</v>
       </c>
@@ -19119,7 +19114,7 @@
       <c r="Q467" s="8"/>
       <c r="R467" s="8"/>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A468" s="35">
         <v>466</v>
       </c>
@@ -19149,7 +19144,7 @@
       <c r="Q468" s="8"/>
       <c r="R468" s="8"/>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" s="35">
         <v>467</v>
       </c>
@@ -19179,7 +19174,7 @@
       <c r="Q469" s="8"/>
       <c r="R469" s="8"/>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" s="35">
         <v>468</v>
       </c>
@@ -19209,7 +19204,7 @@
       <c r="Q470" s="8"/>
       <c r="R470" s="8"/>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" s="42">
         <v>469</v>
       </c>
@@ -19239,7 +19234,7 @@
       <c r="Q471" s="27"/>
       <c r="R471" s="27"/>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" s="41">
         <v>470</v>
       </c>
@@ -19269,7 +19264,7 @@
       <c r="Q472" s="25"/>
       <c r="R472" s="25"/>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" s="35">
         <v>471</v>
       </c>
@@ -19299,7 +19294,7 @@
       <c r="Q473" s="8"/>
       <c r="R473" s="8"/>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" s="35">
         <v>472</v>
       </c>
@@ -19329,7 +19324,7 @@
       <c r="Q474" s="8"/>
       <c r="R474" s="8"/>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" s="35">
         <v>473</v>
       </c>
@@ -19359,7 +19354,7 @@
       <c r="Q475" s="8"/>
       <c r="R475" s="8"/>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A476" s="35">
         <v>474</v>
       </c>
@@ -19389,7 +19384,7 @@
       <c r="Q476" s="8"/>
       <c r="R476" s="8"/>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" s="35">
         <v>475</v>
       </c>
@@ -19419,7 +19414,7 @@
       <c r="Q477" s="8"/>
       <c r="R477" s="8"/>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" s="42">
         <v>476</v>
       </c>
@@ -19449,7 +19444,7 @@
       <c r="Q478" s="27"/>
       <c r="R478" s="27"/>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" s="41">
         <v>477</v>
       </c>
@@ -19479,7 +19474,7 @@
       <c r="Q479" s="25"/>
       <c r="R479" s="25"/>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A480" s="35">
         <v>478</v>
       </c>
@@ -19509,7 +19504,7 @@
       <c r="Q480" s="8"/>
       <c r="R480" s="8"/>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" s="35">
         <v>479</v>
       </c>
@@ -19539,7 +19534,7 @@
       <c r="Q481" s="8"/>
       <c r="R481" s="8"/>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A482" s="35">
         <v>480</v>
       </c>
@@ -19569,7 +19564,7 @@
       <c r="Q482" s="8"/>
       <c r="R482" s="8"/>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A483" s="35">
         <v>481</v>
       </c>
@@ -19599,7 +19594,7 @@
       <c r="Q483" s="8"/>
       <c r="R483" s="8"/>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" s="35">
         <v>482</v>
       </c>
@@ -19629,7 +19624,7 @@
       <c r="Q484" s="8"/>
       <c r="R484" s="8"/>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" s="42">
         <v>483</v>
       </c>
@@ -19659,7 +19654,7 @@
       <c r="Q485" s="27"/>
       <c r="R485" s="27"/>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A486" s="41">
         <v>484</v>
       </c>
@@ -19689,7 +19684,7 @@
       <c r="Q486" s="25"/>
       <c r="R486" s="25"/>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" s="35">
         <v>485</v>
       </c>
@@ -19719,7 +19714,7 @@
       <c r="Q487" s="8"/>
       <c r="R487" s="8"/>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" s="35">
         <v>486</v>
       </c>
@@ -19749,7 +19744,7 @@
       <c r="Q488" s="8"/>
       <c r="R488" s="8"/>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A489" s="35">
         <v>487</v>
       </c>
@@ -19779,7 +19774,7 @@
       <c r="Q489" s="8"/>
       <c r="R489" s="8"/>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A490" s="35">
         <v>488</v>
       </c>
@@ -19809,7 +19804,7 @@
       <c r="Q490" s="8"/>
       <c r="R490" s="8"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" s="35">
         <v>489</v>
       </c>
@@ -19839,7 +19834,7 @@
       <c r="Q491" s="8"/>
       <c r="R491" s="8"/>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A492" s="42">
         <v>490</v>
       </c>
@@ -19869,7 +19864,7 @@
       <c r="Q492" s="27"/>
       <c r="R492" s="27"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" s="41">
         <v>491</v>
       </c>
@@ -19899,7 +19894,7 @@
       <c r="Q493" s="25"/>
       <c r="R493" s="25"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A494" s="35">
         <v>492</v>
       </c>
@@ -19929,7 +19924,7 @@
       <c r="Q494" s="8"/>
       <c r="R494" s="8"/>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A495" s="35">
         <v>493</v>
       </c>
@@ -19959,7 +19954,7 @@
       <c r="Q495" s="8"/>
       <c r="R495" s="8"/>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A496" s="35">
         <v>494</v>
       </c>
@@ -19989,7 +19984,7 @@
       <c r="Q496" s="8"/>
       <c r="R496" s="8"/>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A497" s="35">
         <v>495</v>
       </c>
@@ -20019,7 +20014,7 @@
       <c r="Q497" s="8"/>
       <c r="R497" s="8"/>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A498" s="42">
         <v>496</v>
       </c>
@@ -20049,7 +20044,7 @@
       <c r="Q498" s="27"/>
       <c r="R498" s="27"/>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A499" s="41">
         <v>497</v>
       </c>
@@ -20079,7 +20074,7 @@
       <c r="Q499" s="25"/>
       <c r="R499" s="25"/>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A500" s="35">
         <v>498</v>
       </c>
@@ -20109,7 +20104,7 @@
       <c r="Q500" s="8"/>
       <c r="R500" s="8"/>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A501" s="35">
         <v>499</v>
       </c>
@@ -20139,7 +20134,7 @@
       <c r="Q501" s="8"/>
       <c r="R501" s="8"/>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A502" s="35">
         <v>500</v>
       </c>
@@ -20169,7 +20164,7 @@
       <c r="Q502" s="8"/>
       <c r="R502" s="8"/>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A503" s="35">
         <v>501</v>
       </c>
@@ -20199,7 +20194,7 @@
       <c r="Q503" s="8"/>
       <c r="R503" s="8"/>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A504" s="35">
         <v>502</v>
       </c>
@@ -20229,7 +20224,7 @@
       <c r="Q504" s="8"/>
       <c r="R504" s="8"/>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A505" s="42">
         <v>503</v>
       </c>
@@ -20259,7 +20254,7 @@
       <c r="Q505" s="27"/>
       <c r="R505" s="27"/>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A506" s="41">
         <v>504</v>
       </c>
@@ -20289,7 +20284,7 @@
       <c r="Q506" s="25"/>
       <c r="R506" s="25"/>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A507" s="35">
         <v>505</v>
       </c>
@@ -20319,7 +20314,7 @@
       <c r="Q507" s="8"/>
       <c r="R507" s="8"/>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A508" s="35">
         <v>506</v>
       </c>
@@ -20349,7 +20344,7 @@
       <c r="Q508" s="8"/>
       <c r="R508" s="8"/>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A509" s="35">
         <v>507</v>
       </c>
@@ -20379,7 +20374,7 @@
       <c r="Q509" s="8"/>
       <c r="R509" s="8"/>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A510" s="35">
         <v>508</v>
       </c>
@@ -20409,7 +20404,7 @@
       <c r="Q510" s="8"/>
       <c r="R510" s="8"/>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A511" s="35">
         <v>509</v>
       </c>
@@ -20439,7 +20434,7 @@
       <c r="Q511" s="8"/>
       <c r="R511" s="8"/>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A512" s="42">
         <v>510</v>
       </c>
@@ -20469,7 +20464,7 @@
       <c r="Q512" s="27"/>
       <c r="R512" s="27"/>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A513" s="41">
         <v>511</v>
       </c>
@@ -20499,7 +20494,7 @@
       <c r="Q513" s="25"/>
       <c r="R513" s="25"/>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A514" s="35">
         <v>512</v>
       </c>
@@ -20529,7 +20524,7 @@
       <c r="Q514" s="8"/>
       <c r="R514" s="8"/>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A515" s="35">
         <v>513</v>
       </c>
@@ -20559,7 +20554,7 @@
       <c r="Q515" s="8"/>
       <c r="R515" s="8"/>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A516" s="35">
         <v>514</v>
       </c>
@@ -20589,7 +20584,7 @@
       <c r="Q516" s="8"/>
       <c r="R516" s="8"/>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A517" s="35">
         <v>515</v>
       </c>
@@ -20619,7 +20614,7 @@
       <c r="Q517" s="8"/>
       <c r="R517" s="8"/>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A518" s="35">
         <v>516</v>
       </c>
@@ -20649,7 +20644,7 @@
       <c r="Q518" s="8"/>
       <c r="R518" s="8"/>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A519" s="35">
         <v>517</v>
       </c>
@@ -20679,7 +20674,7 @@
       <c r="Q519" s="8"/>
       <c r="R519" s="8"/>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A520" s="46">
         <v>518</v>
       </c>
@@ -20709,7 +20704,7 @@
       <c r="Q520" s="25"/>
       <c r="R520" s="25"/>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A521" s="47">
         <v>519</v>
       </c>
@@ -20739,7 +20734,7 @@
       <c r="Q521" s="8"/>
       <c r="R521" s="8"/>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A522" s="47">
         <v>520</v>
       </c>
@@ -20769,7 +20764,7 @@
       <c r="Q522" s="8"/>
       <c r="R522" s="8"/>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A523" s="47">
         <v>521</v>
       </c>
@@ -20799,7 +20794,7 @@
       <c r="Q523" s="8"/>
       <c r="R523" s="8"/>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A524" s="47">
         <v>522</v>
       </c>
@@ -20829,7 +20824,7 @@
       <c r="Q524" s="8"/>
       <c r="R524" s="8"/>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A525" s="47">
         <v>523</v>
       </c>
@@ -20859,7 +20854,7 @@
       <c r="Q525" s="8"/>
       <c r="R525" s="8"/>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A526" s="47">
         <v>524</v>
       </c>
@@ -20889,7 +20884,7 @@
       <c r="Q526" s="8"/>
       <c r="R526" s="8"/>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A527" s="48">
         <v>525</v>
       </c>
@@ -20917,7 +20912,7 @@
       <c r="Q527" s="27"/>
       <c r="R527" s="27"/>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A528" s="39">
         <v>526</v>
       </c>
@@ -20947,7 +20942,7 @@
       <c r="Q528" s="13"/>
       <c r="R528" s="13"/>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" s="39">
         <v>527</v>
       </c>
@@ -20977,7 +20972,7 @@
       <c r="Q529" s="13"/>
       <c r="R529" s="13"/>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A530" s="39">
         <v>528</v>
       </c>
@@ -21007,7 +21002,7 @@
       <c r="Q530" s="13"/>
       <c r="R530" s="13"/>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A531" s="39">
         <v>529</v>
       </c>
@@ -21037,7 +21032,7 @@
       <c r="Q531" s="13"/>
       <c r="R531" s="13"/>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A532" s="39">
         <v>530</v>
       </c>
@@ -21067,7 +21062,7 @@
       <c r="Q532" s="13"/>
       <c r="R532" s="13"/>
     </row>
-    <row r="533" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>531</v>
       </c>
@@ -21109,16 +21104,16 @@
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="60" customWidth="1"/>
-    <col min="5" max="256" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="60" customWidth="1"/>
+    <col min="5" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>533</v>
       </c>
@@ -21132,7 +21127,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>23</v>
       </c>
@@ -21146,7 +21141,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="51" t="s">
         <v>23</v>
       </c>
@@ -21160,7 +21155,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
@@ -21174,7 +21169,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>24</v>
       </c>
@@ -21188,7 +21183,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>24</v>
       </c>
@@ -21202,7 +21197,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>24</v>
       </c>
@@ -21216,7 +21211,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>24</v>
       </c>
@@ -21230,7 +21225,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>24</v>
       </c>
@@ -21244,7 +21239,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="51" t="s">
         <v>24</v>
       </c>
@@ -21258,7 +21253,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
         <v>26</v>
       </c>
@@ -21272,7 +21267,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
         <v>26</v>
       </c>
@@ -21286,7 +21281,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
         <v>26</v>
       </c>
@@ -21300,7 +21295,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
         <v>26</v>
       </c>
@@ -21314,7 +21309,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
         <v>26</v>
       </c>
@@ -21328,7 +21323,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
         <v>26</v>
       </c>
@@ -21342,7 +21337,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>26</v>
       </c>
@@ -21356,7 +21351,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
         <v>26</v>
       </c>
@@ -21370,7 +21365,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
         <v>26</v>
       </c>
@@ -21384,7 +21379,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="56" t="s">
         <v>26</v>
       </c>
@@ -21398,7 +21393,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="57" t="s">
         <v>27</v>
       </c>
@@ -21412,7 +21407,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>27</v>
       </c>
@@ -21426,7 +21421,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="58" t="s">
         <v>27</v>
       </c>
@@ -21440,7 +21435,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="58" t="s">
         <v>27</v>
       </c>
@@ -21454,7 +21449,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="58" t="s">
         <v>27</v>
       </c>
@@ -21468,7 +21463,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="49" t="s">
         <v>33</v>
       </c>
@@ -21482,7 +21477,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="51" t="s">
         <v>33</v>
       </c>
@@ -21496,7 +21491,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="59" t="s">
         <v>35</v>
       </c>
@@ -21510,7 +21505,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A29" s="55" t="s">
         <v>35</v>
       </c>
@@ -21524,7 +21519,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="56" t="s">
         <v>35</v>
       </c>
@@ -21538,7 +21533,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="49" t="s">
         <v>54</v>
       </c>
@@ -21552,7 +21547,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="A32" s="53" t="s">
         <v>54</v>
       </c>
@@ -21566,7 +21561,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="53" t="s">
         <v>54</v>
       </c>
@@ -21580,7 +21575,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51" t="s">
         <v>54</v>
       </c>
@@ -21594,7 +21589,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>47</v>
       </c>
@@ -21608,7 +21603,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>47</v>
       </c>
@@ -21622,7 +21617,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>48</v>
       </c>
@@ -21636,7 +21631,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
@@ -21650,7 +21645,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>49</v>
       </c>
@@ -21664,7 +21659,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>49</v>
       </c>
@@ -21678,7 +21673,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>50</v>
       </c>
@@ -21692,7 +21687,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>50</v>
       </c>
@@ -21706,7 +21701,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>55</v>
       </c>
@@ -21720,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>55</v>
       </c>
@@ -21734,7 +21729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>55</v>
       </c>
@@ -21748,7 +21743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>55</v>
       </c>
@@ -21762,7 +21757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>55</v>
       </c>
@@ -21776,7 +21771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>56</v>
       </c>
@@ -21790,7 +21785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>56</v>
       </c>
@@ -21804,7 +21799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>56</v>
       </c>
@@ -21818,7 +21813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>56</v>
       </c>
@@ -21832,7 +21827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>56</v>
       </c>
@@ -21846,7 +21841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>57</v>
       </c>
@@ -21860,7 +21855,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>57</v>
       </c>
@@ -21874,7 +21869,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>58</v>
       </c>
@@ -21888,7 +21883,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>58</v>
       </c>
@@ -21902,7 +21897,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>60</v>
       </c>
@@ -21916,7 +21911,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>60</v>
       </c>
@@ -21930,7 +21925,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>60</v>
       </c>
@@ -21944,7 +21939,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
         <v>64</v>
       </c>
@@ -21958,7 +21953,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>64</v>
       </c>
@@ -21972,7 +21967,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="40" t="s">
         <v>64</v>
       </c>
@@ -21986,7 +21981,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>65</v>
       </c>
@@ -22000,7 +21995,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>65</v>
       </c>
@@ -22014,7 +22009,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="40" t="s">
         <v>65</v>
       </c>
@@ -22028,7 +22023,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>66</v>
       </c>
@@ -22042,7 +22037,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>66</v>
       </c>
@@ -22056,7 +22051,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="40" t="s">
         <v>66</v>
       </c>
